--- a/Docs/Adatbázis/Modellek gyűjteménye.xlsx
+++ b/Docs/Adatbázis/Modellek gyűjteménye.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\House of Swords\gameszko\Docs\Adatbázis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B48EC29-9A71-4672-B8AB-34B9AE669952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822CB9ED-DB05-469E-85F6-AAD6CA6F2ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="4" r:id="rId1"/>
@@ -1483,8 +1483,8 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -1764,10 +1764,10 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -1874,7 +1874,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
@@ -1978,7 +1978,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
@@ -2088,7 +2088,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
@@ -2223,7 +2223,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
@@ -2472,7 +2472,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D6" sqref="D6"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
@@ -2890,7 +2890,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -3099,7 +3099,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -3227,9 +3227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A36744-2979-45A2-9789-505325520E99}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -3935,7 +3935,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D8" sqref="D8"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>

--- a/Docs/Adatbázis/Modellek gyűjteménye.xlsx
+++ b/Docs/Adatbázis/Modellek gyűjteménye.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\House of Swords\gameszko\Docs\Adatbázis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822CB9ED-DB05-469E-85F6-AAD6CA6F2ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4695E6-2415-4385-B6D3-2D47B1477BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="254">
   <si>
     <t>User</t>
   </si>
@@ -86,9 +86,6 @@
     <t>PwdHash</t>
   </si>
   <si>
-    <t>max 128, rejtett</t>
-  </si>
-  <si>
     <t>""</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>PwdSalt</t>
   </si>
   <si>
-    <t>max 20, rejtett</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>EmailVerificationToken</t>
   </si>
   <si>
-    <t>max 32, rejtett, null</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -798,6 +789,18 @@
   </si>
   <si>
     <t>Ezen a szinten a világtérképen milyen messze lévő városok ellen indítható ostrom.</t>
+  </si>
+  <si>
+    <t>ProfileImageUrl</t>
+  </si>
+  <si>
+    <t>A felhasználó által beállított profilkép webcíme. Ha még nem állított be profilképet, akkor az értéke null.</t>
+  </si>
+  <si>
+    <t>max 128</t>
+  </si>
+  <si>
+    <t>max 32, null</t>
   </si>
 </sst>
 </file>
@@ -1480,11 +1483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFD1A9D-9E14-4683-9B7B-AC97263CE9A8}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1511,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1544,7 +1547,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
@@ -1558,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
@@ -1572,7 +1575,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1583,174 +1586,191 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -1782,7 +1802,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1791,7 +1811,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1817,7 +1837,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -1826,35 +1846,35 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1892,7 +1912,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1901,7 +1921,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1927,7 +1947,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -1936,29 +1956,29 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +2016,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2005,7 +2025,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2031,7 +2051,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2040,35 +2060,35 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +2126,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2115,7 +2135,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2141,7 +2161,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2150,60 +2170,60 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2241,7 +2261,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2250,7 +2270,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2276,7 +2296,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2285,170 +2305,170 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="29"/>
     </row>
@@ -2490,7 +2510,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2499,7 +2519,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2525,7 +2545,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2534,49 +2554,49 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2614,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2610,7 +2630,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2619,7 +2639,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2645,7 +2665,7 @@
     </row>
     <row r="4" spans="1:5" ht="39.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2654,171 +2674,171 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6">
         <v>100</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6">
         <v>100</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6">
         <v>100</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6">
         <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6">
         <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -2827,10 +2847,10 @@
     </row>
     <row r="17" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -2838,10 +2858,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -2849,10 +2869,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2860,10 +2880,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -2889,7 +2909,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2905,7 +2925,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2914,7 +2934,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2940,7 +2960,7 @@
     </row>
     <row r="4" spans="1:5" ht="39.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2949,109 +2969,109 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -3060,10 +3080,10 @@
     </row>
     <row r="13" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -3071,10 +3091,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -3114,7 +3134,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3123,7 +3143,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -3149,7 +3169,7 @@
     </row>
     <row r="4" spans="1:5" ht="39.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -3158,35 +3178,35 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3198,7 +3218,7 @@
     </row>
     <row r="8" spans="1:5" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -3227,8 +3247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A36744-2979-45A2-9789-505325520E99}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3244,7 +3264,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3253,7 +3273,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -3279,7 +3299,7 @@
     </row>
     <row r="4" spans="1:5" ht="39.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -3288,18 +3308,18 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
@@ -3310,50 +3330,50 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -3362,10 +3382,10 @@
     </row>
     <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -3404,7 +3424,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3413,7 +3433,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -3439,7 +3459,7 @@
     </row>
     <row r="4" spans="1:5" ht="39.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -3448,66 +3468,66 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="78" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="78" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -3516,10 +3536,10 @@
     </row>
     <row r="11" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>175</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>178</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -3527,10 +3547,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -3538,10 +3558,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -3582,7 +3602,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3591,7 +3611,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -3617,7 +3637,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -3626,55 +3646,55 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="78" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -3684,7 +3704,7 @@
     <row r="10" spans="1:5" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -3693,10 +3713,10 @@
     </row>
     <row r="12" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -3704,10 +3724,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -3748,7 +3768,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3757,7 +3777,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -3783,7 +3803,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -3792,12 +3812,12 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -3806,116 +3826,116 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3953,7 +3973,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3962,7 +3982,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -3988,7 +4008,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -3997,32 +4017,32 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Adatbázis/Modellek gyűjteménye.xlsx
+++ b/Docs/Adatbázis/Modellek gyűjteménye.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\House of Swords\gameszko\Docs\Adatbázis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4695E6-2415-4385-B6D3-2D47B1477BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F50F631-57BD-4F8D-BC76-873E96EE2F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="260">
   <si>
     <t>User</t>
   </si>
@@ -801,6 +801,24 @@
   </si>
   <si>
     <t>max 32, null</t>
+  </si>
+  <si>
+    <t>BrigadeInWood</t>
+  </si>
+  <si>
+    <t>BrigadeInStone</t>
+  </si>
+  <si>
+    <t>BrigadeInMetal</t>
+  </si>
+  <si>
+    <t>BrigadeInGold</t>
+  </si>
+  <si>
+    <t>BrigadeInWarehouse</t>
+  </si>
+  <si>
+    <t>Ha az épület Warehouse típusú, akkor ezen értékek jelölik a nyersanyagtermelő helyekre küldött brigádok számát, illetve azokét, akik nem lettek elküldve sehova, így a raktárban maradtak.</t>
   </si>
 </sst>
 </file>
@@ -860,7 +878,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1102,11 +1120,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF23160F"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF23160F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF23160F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF23160F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF23160F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF23160F"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF23160F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF23160F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1194,6 +1249,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFD1A9D-9E14-4683-9B7B-AC97263CE9A8}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -2906,11 +2970,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9A3666-69F9-4F15-A5C6-4561FB99ADDC}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -3068,45 +3132,123 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B18" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="E11:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Adatbázis/Modellek gyűjteménye.xlsx
+++ b/Docs/Adatbázis/Modellek gyűjteménye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\House of Swords\gameszko\Docs\Adatbázis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F50F631-57BD-4F8D-BC76-873E96EE2F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7963DE4E-0215-4463-8127-443068C4365C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="264">
   <si>
     <t>User</t>
   </si>
@@ -819,6 +819,18 @@
   </si>
   <si>
     <t>Ha az épület Warehouse típusú, akkor ezen értékek jelölik a nyersanyagtermelő helyekre küldött brigádok számát, illetve azokét, akik nem lettek elküldve sehova, így a raktárban maradtak.</t>
+  </si>
+  <si>
+    <t>lastCureDate</t>
+  </si>
+  <si>
+    <t>currentCure</t>
+  </si>
+  <si>
+    <t>injuredUnits</t>
+  </si>
+  <si>
+    <t>healedUnits</t>
   </si>
 </sst>
 </file>
@@ -1232,14 +1244,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1250,14 +1262,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2970,11 +2982,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9A3666-69F9-4F15-A5C6-4561FB99ADDC}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -3209,45 +3221,105 @@
       </c>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B22" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="E11:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3359,13 +3431,13 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -3835,13 +3907,13 @@
     </row>
     <row r="8" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Docs/Adatbázis/Modellek gyűjteménye.xlsx
+++ b/Docs/Adatbázis/Modellek gyűjteménye.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\House of Swords\gameszko\Docs\Adatbázis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7963DE4E-0215-4463-8127-443068C4365C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56009EBC-C16A-4996-B100-820F34364288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="4" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="Bugreport" sheetId="11" r:id="rId5"/>
     <sheet name="Siege" sheetId="12" r:id="rId6"/>
     <sheet name="SiegingUnit" sheetId="13" r:id="rId7"/>
-    <sheet name="Unit" sheetId="15" r:id="rId8"/>
-    <sheet name="Levelstats_Church" sheetId="17" r:id="rId9"/>
-    <sheet name="Levelstats_Research" sheetId="18" r:id="rId10"/>
-    <sheet name="Levelstats_Market" sheetId="19" r:id="rId11"/>
-    <sheet name="Levelstats_Diplomacy" sheetId="20" r:id="rId12"/>
-    <sheet name="Levelstats_Infirmary" sheetId="21" r:id="rId13"/>
-    <sheet name="Levelstats_Warehouse" sheetId="23" r:id="rId14"/>
-    <sheet name="Levelstats_Barrack" sheetId="25" r:id="rId15"/>
+    <sheet name="TrainedUnit" sheetId="27" r:id="rId8"/>
+    <sheet name="Unit" sheetId="15" r:id="rId9"/>
+    <sheet name="Levelstats_Church" sheetId="17" r:id="rId10"/>
+    <sheet name="Levelstats_Research" sheetId="18" r:id="rId11"/>
+    <sheet name="Levelstats_Market" sheetId="19" r:id="rId12"/>
+    <sheet name="Levelstats_Diplomacy" sheetId="20" r:id="rId13"/>
+    <sheet name="Levelstats_Infirmary" sheetId="21" r:id="rId14"/>
+    <sheet name="Levelstats_Warehouse" sheetId="23" r:id="rId15"/>
+    <sheet name="Levelstats_Barrack" sheetId="25" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="276">
   <si>
     <t>User</t>
   </si>
@@ -578,15 +579,9 @@
     <t>SiegingUnits</t>
   </si>
   <si>
-    <t>$siegingUnits-&gt;siege</t>
-  </si>
-  <si>
     <t>Visszaadja az ostromot, melyben ez a támadó csapat vesz részt.</t>
   </si>
   <si>
-    <t>$siegingUnits-&gt;unitType</t>
-  </si>
-  <si>
     <t>Visszaadja ezen támadó egységek típusát.</t>
   </si>
   <si>
@@ -831,6 +826,48 @@
   </si>
   <si>
     <t>healedUnits</t>
+  </si>
+  <si>
+    <t>TrainedUnit</t>
+  </si>
+  <si>
+    <t>Egy városban toborzott egységtípus modelle. Tábla neve: trained_units.</t>
+  </si>
+  <si>
+    <t>TrainingID</t>
+  </si>
+  <si>
+    <t>town - 1:M - trained_units</t>
+  </si>
+  <si>
+    <t>units - 1:M - trained_units</t>
+  </si>
+  <si>
+    <t>A toborzás azonosítója.</t>
+  </si>
+  <si>
+    <t>Azon város azonosítója, melyben történt a toborzás. A város törlődése esetén kaszkádoltan törlődik a rekord.</t>
+  </si>
+  <si>
+    <t>$siegingUnit-&gt;siege</t>
+  </si>
+  <si>
+    <t>$siegingUnit-&gt;unitType</t>
+  </si>
+  <si>
+    <t>$trainedUnit-&gt;town</t>
+  </si>
+  <si>
+    <t>Visszaadja a várost, amelyben a toborzás történt.</t>
+  </si>
+  <si>
+    <t>Visszaadja a toborzott egységek típusát.</t>
+  </si>
+  <si>
+    <t>A toborzott egységek típusának azonosítója (pl. kardos, lovas, íjász). Az egység törlődése esetén kaszkádoltan törlődik a rekord.</t>
+  </si>
+  <si>
+    <t>A toborzott egységek száma.</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>15</v>
@@ -1730,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>25</v>
@@ -1747,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>25</v>
@@ -1761,7 +1798,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
@@ -1775,7 +1812,7 @@
     </row>
     <row r="14" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>10</v>
@@ -1787,7 +1824,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1854,6 +1891,113 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F847C7-0070-4297-8A99-4BFD8602DD31}">
+  <sheetPr>
+    <tabColor rgb="FFA6876E"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8118204-6CD9-4398-8719-0B1F0C169CED}">
   <sheetPr>
     <tabColor rgb="FFA6876E"/>
@@ -1878,7 +2022,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1887,7 +2031,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1913,7 +2057,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -1922,12 +2066,12 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
@@ -1936,12 +2080,12 @@
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -1950,7 +2094,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3F54DE-E511-4BF3-B7F7-71FC66EB5BE6}">
   <sheetPr>
     <tabColor rgb="FFA6876E"/>
@@ -1988,7 +2132,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1997,7 +2141,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2023,7 +2167,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2032,29 +2176,29 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2067,7 +2211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BECF7C-8DA6-4B67-BB52-385623B94BBD}">
   <sheetPr>
     <tabColor rgb="FFA6876E"/>
@@ -2092,7 +2236,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2101,7 +2245,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2127,7 +2271,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2136,12 +2280,12 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
@@ -2150,12 +2294,12 @@
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -2164,7 +2308,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2177,7 +2321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAC1367-C57E-428B-9657-D2C327792830}">
   <sheetPr>
     <tabColor rgb="FFA6876E"/>
@@ -2202,7 +2346,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2211,7 +2355,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2237,7 +2381,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2246,23 +2390,23 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -2271,12 +2415,12 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>19</v>
@@ -2285,12 +2429,12 @@
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>19</v>
@@ -2299,7 +2443,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23499FB7-7D6E-4D9B-ACAF-C5FB68718CE8}">
   <sheetPr>
     <tabColor rgb="FFA6876E"/>
@@ -2337,7 +2481,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2346,7 +2490,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2372,7 +2516,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2381,12 +2525,12 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
@@ -2395,12 +2539,12 @@
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -2409,12 +2553,12 @@
         <v>20</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>19</v>
@@ -2426,7 +2570,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>19</v>
@@ -2438,7 +2582,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>19</v>
@@ -2450,7 +2594,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
@@ -2459,12 +2603,12 @@
         <v>20</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>19</v>
@@ -2476,7 +2620,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>19</v>
@@ -2500,24 +2644,24 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>20</v>
@@ -2526,10 +2670,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>20</v>
@@ -2538,10 +2682,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>20</v>
@@ -2561,7 +2705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D931D9-2269-4E2C-ABF4-5F964AAA28C9}">
   <sheetPr>
     <tabColor rgb="FFA6876E"/>
@@ -2586,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2595,7 +2739,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2621,7 +2765,7 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2630,12 +2774,12 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
@@ -2644,12 +2788,12 @@
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -2658,12 +2802,12 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>19</v>
@@ -2672,7 +2816,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2984,7 +3128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9A3666-69F9-4F15-A5C6-4561FB99ADDC}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -3132,7 +3276,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -3146,7 +3290,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>19</v>
@@ -3158,12 +3302,12 @@
         <v>25</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>19</v>
@@ -3178,7 +3322,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>19</v>
@@ -3193,7 +3337,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>19</v>
@@ -3208,7 +3352,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>19</v>
@@ -3223,10 +3367,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>25</v>
@@ -3238,7 +3382,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>19</v>
@@ -3253,7 +3397,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>19</v>
@@ -3268,7 +3412,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>19</v>
@@ -3487,7 +3631,7 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -3599,7 +3743,7 @@
         <v>171</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -3718,7 +3862,7 @@
         <v>97</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>99</v>
@@ -3800,8 +3944,8 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:E9"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -3927,10 +4071,10 @@
     </row>
     <row r="12" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>179</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>180</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -3938,10 +4082,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>181</v>
+        <v>270</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -3962,6 +4106,164 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027E0AF9-1785-41F2-8DF7-CF43FA767097}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB58D31-F175-41FC-8BBC-87088CA0323D}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -4096,7 +4398,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
@@ -4150,113 +4452,6 @@
       </c>
       <c r="E13" s="5" t="s">
         <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F847C7-0070-4297-8A99-4BFD8602DD31}">
-  <sheetPr>
-    <tabColor rgb="FFA6876E"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Adatbázis/Modellek gyűjteménye.xlsx
+++ b/Docs/Adatbázis/Modellek gyűjteménye.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\House of Swords\gameszko\Docs\Adatbázis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Szakdolgozat\gameszko\Docs\Adatbázis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56009EBC-C16A-4996-B100-820F34364288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6385FD-7040-423C-8D39-6415E883E952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="4" r:id="rId1"/>
@@ -375,9 +375,6 @@
     <t>A felhasználó email-címe, amennyiben a jelentés beküldésekor be volt jelentkezve az oldalon. Ellenkező esetben null. Spam jelentések kiszűréséhez szükséges.</t>
   </si>
   <si>
-    <t>A hiba kijavításának állapota: 0 = nincs megoldva, 1 = folyamatban, 2 = megoldva.</t>
-  </si>
-  <si>
     <t>A hiba jelentésének (avagy rekord rögzítésének) a dátuma.</t>
   </si>
   <si>
@@ -868,13 +865,16 @@
   </si>
   <si>
     <t>A toborzott egységek száma.</t>
+  </si>
+  <si>
+    <t>A hiba kijavításának állapota: 1 = nincs megoldva, 0 = folyamatban, 2 = megoldva.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1603,17 +1603,17 @@
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.109375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>61</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="40.799999999999997">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="40.799999999999997">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>15</v>
@@ -1708,7 +1708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="40.799999999999997">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="40.799999999999997">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="40.799999999999997">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="40.799999999999997">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>25</v>
@@ -1776,7 +1776,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="61.2">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>25</v>
@@ -1793,12 +1793,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="61.2">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
@@ -1810,9 +1810,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="40.799999999999997">
       <c r="A14" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>10</v>
@@ -1824,53 +1824,53 @@
         <v>25</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" thickBot="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" thickTop="1">
       <c r="A17" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1903,35 +1903,35 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1948,9 +1948,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -1959,23 +1959,23 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.799999999999997">
+      <c r="A5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="5" t="s">
+    <row r="6" spans="1:5" ht="61.2">
+      <c r="A6" s="5" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -1984,7 +1984,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2010,35 +2010,35 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2055,9 +2055,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2066,12 +2066,12 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.799999999999997">
       <c r="A5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
@@ -2080,12 +2080,12 @@
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.799999999999997">
+      <c r="A6" s="5" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -2094,7 +2094,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2120,35 +2120,35 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="65.85546875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="1" max="1" width="40.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="65.88671875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2165,9 +2165,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2176,29 +2176,29 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.799999999999997">
       <c r="A5" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="61.2">
+      <c r="A6" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2224,35 +2224,35 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2269,9 +2269,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2280,12 +2280,12 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
@@ -2294,12 +2294,12 @@
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.799999999999997">
+      <c r="A6" s="5" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -2308,7 +2308,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2334,35 +2334,35 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2379,9 +2379,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2390,23 +2390,23 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.799999999999997">
       <c r="A5" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="81.599999999999994">
+      <c r="A6" s="5" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -2415,12 +2415,12 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.799999999999997">
+      <c r="A7" s="5" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>19</v>
@@ -2429,12 +2429,12 @@
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.799999999999997">
+      <c r="A8" s="5" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>19</v>
@@ -2443,7 +2443,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2469,35 +2469,35 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2514,9 +2514,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2525,12 +2525,12 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.799999999999997">
       <c r="A5" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
@@ -2539,12 +2539,12 @@
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -2553,12 +2553,12 @@
         <v>20</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>19</v>
@@ -2568,9 +2568,9 @@
       </c>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>19</v>
@@ -2580,9 +2580,9 @@
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>19</v>
@@ -2592,9 +2592,9 @@
       </c>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
@@ -2603,12 +2603,12 @@
         <v>20</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>19</v>
@@ -2618,9 +2618,9 @@
       </c>
       <c r="E11" s="28"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>19</v>
@@ -2630,9 +2630,9 @@
       </c>
       <c r="E12" s="28"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>19</v>
@@ -2642,50 +2642,50 @@
       </c>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="28"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>20</v>
@@ -2718,35 +2718,35 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2763,9 +2763,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2774,12 +2774,12 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.799999999999997">
       <c r="A5" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
@@ -2788,12 +2788,12 @@
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.799999999999997">
       <c r="A6" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -2802,12 +2802,12 @@
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.799999999999997">
+      <c r="A7" s="5" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>19</v>
@@ -2816,7 +2816,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2838,17 +2838,17 @@
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.109375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
         <v>30</v>
       </c>
@@ -2857,7 +2857,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>62</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="40.799999999999997">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="40.799999999999997">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="61.2">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="61.2">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -3055,55 +3055,55 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="21" thickBot="1"/>
+    <row r="16" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" thickTop="1">
       <c r="A17" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="40.799999999999997">
       <c r="A20" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -3133,17 +3133,17 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
         <v>53</v>
       </c>
@@ -3152,7 +3152,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>63</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="40.799999999999997">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="61.2">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>65</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="61.2">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="61.2">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -3271,12 +3271,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="61.2">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>25</v>
@@ -3288,9 +3288,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>19</v>
@@ -3302,12 +3302,12 @@
         <v>25</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>19</v>
@@ -3320,9 +3320,9 @@
       </c>
       <c r="E12" s="28"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>19</v>
@@ -3335,9 +3335,9 @@
       </c>
       <c r="E13" s="28"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>19</v>
@@ -3350,9 +3350,9 @@
       </c>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>19</v>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>25</v>
@@ -3380,9 +3380,9 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>19</v>
@@ -3395,9 +3395,9 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>19</v>
@@ -3410,9 +3410,9 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>19</v>
@@ -3425,33 +3425,33 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="21" thickBot="1"/>
+    <row r="21" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="1:5" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="20.25" customHeight="1" thickTop="1">
       <c r="A22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>166</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>167</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -3480,17 +3480,17 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
         <v>74</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>76</v>
       </c>
@@ -3508,7 +3508,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="61.2">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -3550,10 +3550,10 @@
         <v>78</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="61.2">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
@@ -3564,26 +3564,26 @@
         <v>78</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" thickBot="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="116.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" thickTop="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3605,22 +3605,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A36744-2979-45A2-9789-505325520E99}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
         <v>80</v>
       </c>
@@ -3629,16 +3629,16 @@
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>83</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="61.2">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="40.799999999999997">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
@@ -3708,13 +3708,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.799999999999997">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -3725,25 +3725,25 @@
         <v>28</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" thickBot="1"/>
+    <row r="10" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1" thickTop="1">
       <c r="A11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -3770,17 +3770,17 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
         <v>90</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>92</v>
       </c>
@@ -3798,7 +3798,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>91</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="61.2">
       <c r="A5" s="5" t="s">
         <v>94</v>
       </c>
@@ -3840,10 +3840,10 @@
         <v>95</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="61.2">
       <c r="A6" s="5" t="s">
         <v>96</v>
       </c>
@@ -3854,21 +3854,21 @@
         <v>95</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="78" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="81.599999999999994">
       <c r="A7" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="81.599999999999994">
       <c r="A8" s="5" t="s">
         <v>98</v>
       </c>
@@ -3879,47 +3879,47 @@
         <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" thickBot="1"/>
+    <row r="10" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" thickTop="1">
       <c r="A11" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -3948,35 +3948,35 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="1" max="1" width="35.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3993,9 +3993,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -4004,10 +4004,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="78" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="81.599999999999994">
       <c r="A5" s="5" t="s">
         <v>91</v>
       </c>
@@ -4015,29 +4015,29 @@
         <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="81.599999999999994">
       <c r="A6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.799999999999997">
+      <c r="A7" s="5" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>19</v>
@@ -4046,46 +4046,46 @@
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" thickBot="1"/>
+    <row r="9" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="30" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>128</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="21.6" thickTop="1" thickBot="1"/>
+    <row r="11" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" thickTop="1">
       <c r="A12" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -4109,40 +4109,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027E0AF9-1785-41F2-8DF7-CF43FA767097}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4159,9 +4159,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -4170,10 +4170,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="61.2">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -4181,29 +4181,29 @@
         <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="61.2">
       <c r="A6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>19</v>
@@ -4215,36 +4215,36 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" thickBot="1"/>
+    <row r="9" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" thickTop="1">
       <c r="A10" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>271</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>272</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -4272,35 +4272,35 @@
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.7109375" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
       <c r="A1" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4317,9 +4317,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" thickTop="1">
       <c r="A4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -4328,12 +4328,12 @@
         <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -4342,79 +4342,79 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="61.2">
+      <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.799999999999997">
+      <c r="A7" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="40.799999999999997">
       <c r="A8" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="61.2">
+      <c r="A9" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="B9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="40.799999999999997">
       <c r="A10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>19</v>
@@ -4423,12 +4423,12 @@
         <v>20</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40.799999999999997">
+      <c r="A12" s="5" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>19</v>
@@ -4437,12 +4437,12 @@
         <v>20</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="61.2">
+      <c r="A13" s="5" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>19</v>
@@ -4451,7 +4451,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Adatbázis/Modellek gyűjteménye.xlsx
+++ b/Docs/Adatbázis/Modellek gyűjteménye.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Szakdolgozat\gameszko\Docs\Adatbázis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luksa.laura\Documents\GitHub\House_of_Swords\Docs\Adatbázis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6385FD-7040-423C-8D39-6415E883E952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0480D54-F42A-4275-9278-89403920A136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="289">
   <si>
     <t>User</t>
   </si>
@@ -868,13 +868,52 @@
   </si>
   <si>
     <t>A hiba kijavításának állapota: 1 = nincs megoldva, 0 = folyamatban, 2 = megoldva.</t>
+  </si>
+  <si>
+    <t>Ha az épület Infirmary típusú, akkor az épületben utoljára indított gyógyítás dátumát jelöli. Ellenkező esetben null.</t>
+  </si>
+  <si>
+    <t>Ha az épület Infirmary típusú, akkor annak a száma, ahány katonát gyógyítanak éppen az épületben. (Ellenkező esetben null.)  Amennyiben a gyógyításnak vége, az értéke 0 lesz.</t>
+  </si>
+  <si>
+    <t>Ha az épület Infirmary típusú, akkor annak a száma, ahány sebesült katona van éppen az épületben. Ellenkező esetben null.</t>
+  </si>
+  <si>
+    <t>Ha az épület Infirmary típusú, akkor annak a száma, ahány sikeresen meggyógyított katona van éppen az épületben. Ellenkező esetben null.</t>
+  </si>
+  <si>
+    <t>LastTrainingDate</t>
+  </si>
+  <si>
+    <t>TrainedUnitID</t>
+  </si>
+  <si>
+    <t>TrainedAmount</t>
+  </si>
+  <si>
+    <t>Ha az épület Barrack típusú, akkor az épületben utoljára indított toborzás dátumát jelöli. Ellenkező esetben null.</t>
+  </si>
+  <si>
+    <t>Ha az épület Barrack típusú, akkor annak a unitnak az ID-ja amit éppen toboroznakaz épületben. Ellenkező esetben null.</t>
+  </si>
+  <si>
+    <t>Ha az épület Barrack típusú, akkor annak a száma, ahány katonát toboroznak éppen van éppen az épületben. Ellenkező esetben null.</t>
+  </si>
+  <si>
+    <t>FightLength</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Ezen a szinten mennyi ideig tart a háború.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,6 +941,13 @@
     </font>
     <font>
       <sz val="20"/>
+      <color rgb="FFD7D7D3"/>
+      <name val="Vinque Rg"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
       <color rgb="FFD7D7D3"/>
       <name val="Vinque Rg"/>
       <family val="2"/>
@@ -1210,7 +1256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1234,6 +1280,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1307,6 +1356,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1603,33 +1655,33 @@
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.109375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -1648,7 +1700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="41.25" thickTop="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1663,7 +1715,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.799999999999997">
+    <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +1729,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40.799999999999997">
+    <row r="6" spans="1:5" ht="40.5">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1708,7 +1760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40.799999999999997">
+    <row r="8" spans="1:5" ht="40.5">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1725,7 +1777,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="40.799999999999997">
+    <row r="9" spans="1:5" ht="40.5">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1742,7 +1794,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="40.799999999999997">
+    <row r="10" spans="1:5" ht="40.5">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1759,7 +1811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.799999999999997">
+    <row r="11" spans="1:5" ht="40.5">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1776,7 +1828,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="61.2">
+    <row r="12" spans="1:5" ht="40.5">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -1793,7 +1845,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="61.2">
+    <row r="13" spans="1:5" ht="60.75">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -1810,7 +1862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="40.799999999999997">
+    <row r="14" spans="1:5" ht="40.5">
       <c r="A14" s="7" t="s">
         <v>247</v>
       </c>
@@ -1835,46 +1887,46 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="21" thickTop="1">
       <c r="A17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1903,33 +1955,33 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -1948,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="21" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>184</v>
       </c>
@@ -1962,7 +2014,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.799999999999997">
+    <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="5" t="s">
         <v>187</v>
       </c>
@@ -1973,7 +2025,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="61.2">
+    <row r="6" spans="1:5" ht="60.75">
       <c r="A6" s="5" t="s">
         <v>190</v>
       </c>
@@ -2010,33 +2062,33 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2055,7 +2107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="21" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>184</v>
       </c>
@@ -2069,7 +2121,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.799999999999997">
+    <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="5" t="s">
         <v>194</v>
       </c>
@@ -2083,7 +2135,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40.799999999999997">
+    <row r="6" spans="1:5" ht="40.5">
       <c r="A6" s="5" t="s">
         <v>196</v>
       </c>
@@ -2120,33 +2172,33 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="65.88671875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="1" max="1" width="40.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="65.85546875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2165,7 +2217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="21" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>184</v>
       </c>
@@ -2179,7 +2231,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.799999999999997">
+    <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="5" t="s">
         <v>200</v>
       </c>
@@ -2190,7 +2242,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="61.2">
+    <row r="6" spans="1:5" ht="60.75">
       <c r="A6" s="5" t="s">
         <v>201</v>
       </c>
@@ -2224,33 +2276,33 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2269,7 +2321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="21" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>184</v>
       </c>
@@ -2297,7 +2349,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40.799999999999997">
+    <row r="6" spans="1:5" ht="40.5">
       <c r="A6" s="5" t="s">
         <v>208</v>
       </c>
@@ -2334,33 +2386,33 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2379,7 +2431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="21" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>184</v>
       </c>
@@ -2393,7 +2445,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.799999999999997">
+    <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="5" t="s">
         <v>212</v>
       </c>
@@ -2404,7 +2456,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="81.599999999999994">
+    <row r="6" spans="1:5" ht="81">
       <c r="A6" s="5" t="s">
         <v>214</v>
       </c>
@@ -2418,7 +2470,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40.799999999999997">
+    <row r="7" spans="1:5" ht="40.5">
       <c r="A7" s="5" t="s">
         <v>216</v>
       </c>
@@ -2432,7 +2484,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40.799999999999997">
+    <row r="8" spans="1:5" ht="40.5">
       <c r="A8" s="5" t="s">
         <v>218</v>
       </c>
@@ -2469,33 +2521,33 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2514,7 +2566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="21" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>184</v>
       </c>
@@ -2528,7 +2580,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.799999999999997">
+    <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="5" t="s">
         <v>222</v>
       </c>
@@ -2552,7 +2604,7 @@
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="28" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2566,7 +2618,7 @@
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
@@ -2578,7 +2630,7 @@
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
@@ -2590,7 +2642,7 @@
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
@@ -2602,7 +2654,7 @@
       <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2616,7 +2668,7 @@
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
@@ -2628,7 +2680,7 @@
       <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
@@ -2640,7 +2692,7 @@
       <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
@@ -2652,7 +2704,7 @@
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2666,7 +2718,7 @@
       <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
@@ -2678,7 +2730,7 @@
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
@@ -2690,7 +2742,7 @@
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2710,41 +2762,41 @@
   <sheetPr>
     <tabColor rgb="FFA6876E"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2763,7 +2815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="21" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>184</v>
       </c>
@@ -2777,7 +2829,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.799999999999997">
+    <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="5" t="s">
         <v>241</v>
       </c>
@@ -2791,7 +2843,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40.799999999999997">
+    <row r="6" spans="1:5" ht="40.5">
       <c r="A6" s="5" t="s">
         <v>242</v>
       </c>
@@ -2805,7 +2857,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40.799999999999997">
+    <row r="7" spans="1:5" ht="40.5">
       <c r="A7" s="5" t="s">
         <v>245</v>
       </c>
@@ -2817,6 +2869,17 @@
       </c>
       <c r="E7" s="5" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2838,33 +2901,33 @@
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="85.109375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2883,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="41.25" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -2897,7 +2960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.799999999999997">
+    <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -2925,7 +2988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40.799999999999997">
+    <row r="7" spans="1:5" ht="40.5">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -3027,7 +3090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="61.2">
+    <row r="13" spans="1:5" ht="60.75">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -3041,7 +3104,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="61.2">
+    <row r="14" spans="1:5" ht="60.75">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -3057,57 +3120,57 @@
     </row>
     <row r="15" spans="1:5" ht="21" thickBot="1"/>
     <row r="16" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" ht="21" thickTop="1">
       <c r="A17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" ht="40.799999999999997">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3126,40 +3189,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9A3666-69F9-4F15-A5C6-4561FB99ADDC}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -3178,7 +3241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="41.25" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -3192,7 +3255,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.799999999999997">
+    <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -3206,7 +3269,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="61.2">
+    <row r="6" spans="1:5" ht="60.75">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -3237,7 +3300,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="61.2">
+    <row r="8" spans="1:5" ht="60.75">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
@@ -3254,7 +3317,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="61.2">
+    <row r="9" spans="1:5" ht="60.75">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -3271,7 +3334,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="61.2">
+    <row r="10" spans="1:5" ht="40.5">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -3301,7 +3364,7 @@
       <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="28" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3318,7 +3381,7 @@
       <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
@@ -3333,7 +3396,7 @@
       <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
@@ -3348,7 +3411,7 @@
       <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
@@ -3363,9 +3426,9 @@
       <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="40.5">
       <c r="A16" s="5" t="s">
         <v>257</v>
       </c>
@@ -3378,9 +3441,11 @@
       <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="81">
       <c r="A17" s="5" t="s">
         <v>258</v>
       </c>
@@ -3393,9 +3458,11 @@
       <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60.75">
       <c r="A18" s="5" t="s">
         <v>259</v>
       </c>
@@ -3408,9 +3475,11 @@
       <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60.75">
       <c r="A19" s="5" t="s">
         <v>260</v>
       </c>
@@ -3423,47 +3492,100 @@
       <c r="D19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="21" thickBot="1"/>
-    <row r="21" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="18" t="s">
+      <c r="E19" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="40.5">
+      <c r="A20" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60.75">
+      <c r="A21" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60.75">
+      <c r="A22" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" thickBot="1"/>
+    <row r="24" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A24" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.25" customHeight="1" thickTop="1">
-      <c r="A22" s="3" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.25" customHeight="1" thickTop="1">
+      <c r="A25" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B25" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="E11:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3480,33 +3602,33 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -3525,7 +3647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="41.25" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
@@ -3539,7 +3661,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="61.2">
+    <row r="5" spans="1:5" ht="60.75">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -3553,7 +3675,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="61.2">
+    <row r="6" spans="1:5" ht="60.75">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
@@ -3575,13 +3697,13 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="116.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:5" ht="21" thickTop="1">
       <c r="A9" s="3"/>
@@ -3605,38 +3727,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A36744-2979-45A2-9789-505325520E99}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -3655,7 +3777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="41.25" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -3680,7 +3802,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="61.2">
+    <row r="6" spans="1:5" ht="60.75">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -3697,7 +3819,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40.799999999999997">
+    <row r="7" spans="1:5" ht="40.5">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
@@ -3714,7 +3836,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40.799999999999997">
+    <row r="8" spans="1:5" ht="40.5">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -3730,24 +3852,24 @@
     </row>
     <row r="9" spans="1:5" ht="21" thickBot="1"/>
     <row r="10" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" ht="39.9" customHeight="1" thickTop="1">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" thickTop="1">
       <c r="A11" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3770,33 +3892,33 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -3815,7 +3937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="41.25" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>91</v>
       </c>
@@ -3829,7 +3951,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="61.2">
+    <row r="5" spans="1:5" ht="60.75">
       <c r="A5" s="5" t="s">
         <v>94</v>
       </c>
@@ -3843,7 +3965,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="61.2">
+    <row r="6" spans="1:5" ht="60.75">
       <c r="A6" s="5" t="s">
         <v>96</v>
       </c>
@@ -3857,7 +3979,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="81.599999999999994">
+    <row r="7" spans="1:5" ht="81">
       <c r="A7" s="5" t="s">
         <v>97</v>
       </c>
@@ -3868,7 +3990,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="81.599999999999994">
+    <row r="8" spans="1:5" ht="81">
       <c r="A8" s="5" t="s">
         <v>98</v>
       </c>
@@ -3884,46 +4006,46 @@
     </row>
     <row r="9" spans="1:5" ht="21" thickBot="1"/>
     <row r="10" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" ht="21" thickTop="1">
       <c r="A11" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3948,33 +4070,33 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="1" max="1" width="35.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -3993,7 +4115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="21" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>114</v>
       </c>
@@ -4007,7 +4129,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="81.599999999999994">
+    <row r="5" spans="1:5" ht="81">
       <c r="A5" s="5" t="s">
         <v>91</v>
       </c>
@@ -4021,7 +4143,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="81.599999999999994">
+    <row r="6" spans="1:5" ht="81">
       <c r="A6" s="5" t="s">
         <v>121</v>
       </c>
@@ -4035,7 +4157,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40.799999999999997">
+    <row r="7" spans="1:5" ht="40.5">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -4051,45 +4173,45 @@
     </row>
     <row r="8" spans="1:5" ht="21" thickBot="1"/>
     <row r="9" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="1:5" ht="21.6" thickTop="1" thickBot="1"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+    </row>
+    <row r="10" spans="1:5" ht="21.75" thickTop="1" thickBot="1"/>
     <row r="11" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" ht="21" thickTop="1">
       <c r="A12" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4114,33 +4236,33 @@
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -4159,7 +4281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="21" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>263</v>
       </c>
@@ -4173,7 +4295,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="61.2">
+    <row r="5" spans="1:5" ht="60.75">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -4187,7 +4309,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="61.2">
+    <row r="6" spans="1:5" ht="60.75">
       <c r="A6" s="5" t="s">
         <v>121</v>
       </c>
@@ -4220,35 +4342,35 @@
     </row>
     <row r="8" spans="1:5" ht="21" thickBot="1"/>
     <row r="9" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="21" thickTop="1">
       <c r="A10" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4272,33 +4394,33 @@
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.44140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="23.6640625" style="1"/>
+    <col min="1" max="1" width="33.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.42578125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="23.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -4317,7 +4439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" thickTop="1">
+    <row r="4" spans="1:5" ht="21" thickTop="1">
       <c r="A4" s="5" t="s">
         <v>121</v>
       </c>
@@ -4345,7 +4467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="61.2">
+    <row r="6" spans="1:5" ht="60.75">
       <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
@@ -4359,7 +4481,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40.799999999999997">
+    <row r="7" spans="1:5" ht="40.5">
       <c r="A7" s="5" t="s">
         <v>136</v>
       </c>
@@ -4373,7 +4495,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40.799999999999997">
+    <row r="8" spans="1:5" ht="40.5">
       <c r="A8" s="5" t="s">
         <v>137</v>
       </c>
@@ -4387,7 +4509,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="61.2">
+    <row r="9" spans="1:5" ht="60.75">
       <c r="A9" s="5" t="s">
         <v>140</v>
       </c>
@@ -4401,7 +4523,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="40.799999999999997">
+    <row r="10" spans="1:5" ht="40.5">
       <c r="A10" s="5" t="s">
         <v>141</v>
       </c>
@@ -4426,7 +4548,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="40.799999999999997">
+    <row r="12" spans="1:5" ht="40.5">
       <c r="A12" s="5" t="s">
         <v>146</v>
       </c>
@@ -4440,7 +4562,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="61.2">
+    <row r="13" spans="1:5" ht="60.75">
       <c r="A13" s="5" t="s">
         <v>148</v>
       </c>

--- a/Docs/Adatbázis/Modellek gyűjteménye.xlsx
+++ b/Docs/Adatbázis/Modellek gyűjteménye.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luksa.laura\Documents\GitHub\House_of_Swords\Docs\Adatbázis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0480D54-F42A-4275-9278-89403920A136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB9FBFD-0A81-4411-AE6B-C1411E1AE8E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="292">
   <si>
     <t>User</t>
   </si>
@@ -907,6 +907,15 @@
   </si>
   <si>
     <t>Ezen a szinten mennyi ideig tart a háború.</t>
+  </si>
+  <si>
+    <t>isConfirmed</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A két felhasználó baráti státuszát mutatja. </t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1284,6 +1293,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1356,9 +1371,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1666,22 +1678,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -1887,46 +1899,46 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" ht="21" thickTop="1">
       <c r="A17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1966,22 +1978,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2073,22 +2085,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2183,22 +2195,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2287,22 +2299,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2397,22 +2409,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2532,22 +2544,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2604,7 +2616,7 @@
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="30" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2618,7 +2630,7 @@
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
@@ -2630,7 +2642,7 @@
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
@@ -2642,7 +2654,7 @@
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
@@ -2654,7 +2666,7 @@
       <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="30" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2668,7 +2680,7 @@
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
@@ -2680,7 +2692,7 @@
       <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
@@ -2692,7 +2704,7 @@
       <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
@@ -2704,7 +2716,7 @@
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="30" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2718,7 +2730,7 @@
       <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
@@ -2730,7 +2742,7 @@
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
@@ -2742,7 +2754,7 @@
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2764,7 +2776,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D6" sqref="D6"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
@@ -2781,22 +2793,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -2872,7 +2884,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="11" t="s">
         <v>286</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2912,22 +2924,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -3120,57 +3132,57 @@
     </row>
     <row r="15" spans="1:5" ht="21" thickBot="1"/>
     <row r="16" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" ht="21" thickTop="1">
       <c r="A17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3207,22 +3219,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -3364,7 +3376,7 @@
       <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3381,7 +3393,7 @@
       <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
@@ -3396,7 +3408,7 @@
       <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
@@ -3411,7 +3423,7 @@
       <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
@@ -3426,7 +3438,7 @@
       <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" ht="40.5">
       <c r="A16" s="5" t="s">
@@ -3497,7 +3509,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="40.5">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="11" t="s">
         <v>280</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -3514,7 +3526,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="60.75">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="11" t="s">
         <v>281</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3531,7 +3543,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="60.75">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="11" t="s">
         <v>282</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3549,35 +3561,35 @@
     </row>
     <row r="23" spans="1:5" ht="21" thickBot="1"/>
     <row r="24" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:5" ht="20.25" customHeight="1" thickTop="1">
       <c r="A25" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3597,9 +3609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9249BE-01AA-4FE5-86CF-6ECEFD1F5AC7}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="20.25"/>
@@ -3613,22 +3625,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -3690,20 +3702,28 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" thickBot="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="116.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="21" thickTop="1">
       <c r="A9" s="3"/>
@@ -3743,22 +3763,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -3852,24 +3872,24 @@
     </row>
     <row r="9" spans="1:5" ht="21" thickBot="1"/>
     <row r="10" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" thickTop="1">
       <c r="A11" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3903,22 +3923,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -4006,46 +4026,46 @@
     </row>
     <row r="9" spans="1:5" ht="21" thickBot="1"/>
     <row r="10" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" ht="21" thickTop="1">
       <c r="A11" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4081,22 +4101,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -4173,45 +4193,45 @@
     </row>
     <row r="8" spans="1:5" ht="21" thickBot="1"/>
     <row r="9" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" ht="21.75" thickTop="1" thickBot="1"/>
     <row r="11" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" ht="21" thickTop="1">
       <c r="A12" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4247,22 +4267,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -4342,35 +4362,35 @@
     </row>
     <row r="8" spans="1:5" ht="21" thickBot="1"/>
     <row r="9" spans="1:5" ht="50.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" ht="21" thickTop="1">
       <c r="A10" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4405,22 +4425,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
